--- a/回合---数值.xlsx
+++ b/回合---数值.xlsx
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13">
         <f>$F$10+($F$11*D13)</f>
@@ -634,23 +634,23 @@
         <v>11</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J13:J22" si="5">D13</f>
+        <f t="shared" ref="J13:J23" si="5">D13</f>
         <v>1</v>
       </c>
       <c r="K13">
         <f t="shared" ref="K13:K22" si="6">E13</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L22" si="7">F13</f>
+        <f t="shared" ref="L13:L23" si="7">F13</f>
         <v>110</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M22" si="8">G13</f>
+        <f t="shared" ref="M13:M23" si="8">G13</f>
         <v>22</v>
       </c>
       <c r="N13">
-        <f t="shared" ref="N13:N22" si="9">H13</f>
+        <f t="shared" ref="N13:N23" si="9">H13</f>
         <v>11</v>
       </c>
       <c r="P13">
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <f t="shared" ref="F14:F22" si="12">$F$10+($F$11*D14)</f>
@@ -691,7 +691,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L14">
         <f t="shared" si="7"/>
@@ -723,7 +723,7 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F15">
         <f t="shared" si="12"/>
@@ -743,7 +743,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L15">
         <f t="shared" si="7"/>
@@ -775,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <f t="shared" si="12"/>
@@ -795,7 +795,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L16">
         <f t="shared" si="7"/>
@@ -879,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="E18">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <f t="shared" si="12"/>
@@ -899,7 +899,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L18">
         <f t="shared" si="7"/>
@@ -931,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="E19">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F19">
         <f t="shared" si="12"/>
@@ -951,7 +951,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L19">
         <f t="shared" si="7"/>
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <f t="shared" si="12"/>
@@ -1003,7 +1003,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L20">
         <f t="shared" si="7"/>
@@ -1035,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F21">
         <f t="shared" si="12"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L21">
         <f t="shared" si="7"/>
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F22">
         <f t="shared" si="12"/>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L22">
         <f t="shared" si="7"/>
@@ -1149,6 +1149,12 @@
       <c r="R23">
         <f t="shared" si="15"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <f>SUM(E13:E22)</f>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.25">
@@ -1225,7 +1231,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
         <f t="shared" si="17"/>
@@ -1245,7 +1251,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L27">
         <f>ROUND(L13*$L$25,0)</f>
@@ -1279,7 +1285,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="20"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <f t="shared" si="20"/>
@@ -1299,7 +1305,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="21"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L28">
         <f t="shared" ref="L28:L36" si="22">ROUND(L14*$L$25,0)</f>
@@ -1333,7 +1339,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="26"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <f t="shared" si="26"/>
@@ -1353,7 +1359,7 @@
       </c>
       <c r="K29">
         <f t="shared" si="27"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L29">
         <f t="shared" si="22"/>
@@ -1387,7 +1393,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F30">
         <f t="shared" si="28"/>
@@ -1407,7 +1413,7 @@
       </c>
       <c r="K30">
         <f t="shared" si="29"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L30">
         <f t="shared" si="22"/>
@@ -1495,7 +1501,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="32"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F32">
         <f t="shared" si="32"/>
@@ -1515,7 +1521,7 @@
       </c>
       <c r="K32">
         <f t="shared" si="33"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L32">
         <f t="shared" si="22"/>
@@ -1549,7 +1555,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="34"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <f t="shared" si="34"/>
@@ -1569,7 +1575,7 @@
       </c>
       <c r="K33">
         <f t="shared" si="35"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L33">
         <f t="shared" si="22"/>
@@ -1603,7 +1609,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="36"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F34">
         <f t="shared" si="36"/>
@@ -1623,7 +1629,7 @@
       </c>
       <c r="K34">
         <f t="shared" si="37"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L34">
         <f t="shared" si="22"/>
@@ -1657,7 +1663,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="38"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F35">
         <f t="shared" si="38"/>
@@ -1677,7 +1683,7 @@
       </c>
       <c r="K35">
         <f t="shared" si="39"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L35">
         <f t="shared" si="22"/>
@@ -1711,7 +1717,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="40"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F36">
         <f t="shared" si="40"/>
@@ -1731,7 +1737,7 @@
       </c>
       <c r="K36">
         <f t="shared" si="41"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L36">
         <f t="shared" si="22"/>
@@ -1850,7 +1856,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <f t="shared" si="44"/>
@@ -1870,7 +1876,7 @@
       </c>
       <c r="K41">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41">
         <f>ROUND(L13*$L$39,0)</f>
@@ -1904,7 +1910,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="47"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F42">
         <f t="shared" si="47"/>
@@ -1924,7 +1930,7 @@
       </c>
       <c r="K42">
         <f t="shared" si="48"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L42">
         <f t="shared" ref="L42:L50" si="49">ROUND(L14*$L$39,0)</f>
@@ -1958,7 +1964,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="53"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <f t="shared" si="53"/>
@@ -1978,7 +1984,7 @@
       </c>
       <c r="K43">
         <f t="shared" si="54"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L43">
         <f t="shared" si="49"/>
@@ -2012,7 +2018,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="55"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F44">
         <f t="shared" si="55"/>
@@ -2032,7 +2038,7 @@
       </c>
       <c r="K44">
         <f t="shared" si="56"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L44">
         <f t="shared" si="49"/>
@@ -2120,7 +2126,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="59"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F46">
         <f t="shared" si="59"/>
@@ -2140,7 +2146,7 @@
       </c>
       <c r="K46">
         <f t="shared" si="60"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L46">
         <f t="shared" si="49"/>
@@ -2174,7 +2180,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="61"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F47">
         <f t="shared" si="61"/>
@@ -2194,7 +2200,7 @@
       </c>
       <c r="K47">
         <f t="shared" si="62"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L47">
         <f t="shared" si="49"/>
@@ -2228,7 +2234,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="63"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F48">
         <f t="shared" si="63"/>
@@ -2248,7 +2254,7 @@
       </c>
       <c r="K48">
         <f t="shared" si="64"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L48">
         <f t="shared" si="49"/>
@@ -2282,7 +2288,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="65"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F49">
         <f t="shared" si="65"/>
@@ -2302,7 +2308,7 @@
       </c>
       <c r="K49">
         <f t="shared" si="66"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L49">
         <f t="shared" si="49"/>
@@ -2336,7 +2342,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="67"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F50">
         <f t="shared" si="67"/>
@@ -2356,7 +2362,7 @@
       </c>
       <c r="K50">
         <f t="shared" si="68"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L50">
         <f t="shared" si="49"/>
@@ -2476,7 +2482,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F55">
         <f t="shared" si="70"/>
@@ -2496,7 +2502,7 @@
       </c>
       <c r="K55">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L55">
         <f>ROUND(L13*$L$53,0)</f>
@@ -2530,7 +2536,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="74"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F56">
         <f t="shared" si="74"/>
@@ -2550,7 +2556,7 @@
       </c>
       <c r="K56">
         <f t="shared" si="75"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L56">
         <f t="shared" ref="L56:L64" si="76">ROUND(L14*$L$53,0)</f>
@@ -2584,7 +2590,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="80"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <f t="shared" si="80"/>
@@ -2604,7 +2610,7 @@
       </c>
       <c r="K57">
         <f t="shared" si="81"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L57">
         <f t="shared" si="76"/>
@@ -2638,7 +2644,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="82"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F58">
         <f t="shared" si="82"/>
@@ -2658,7 +2664,7 @@
       </c>
       <c r="K58">
         <f t="shared" si="83"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L58">
         <f t="shared" si="76"/>
@@ -2746,7 +2752,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="86"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F60">
         <f t="shared" si="86"/>
@@ -2766,7 +2772,7 @@
       </c>
       <c r="K60">
         <f t="shared" si="87"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L60">
         <f t="shared" si="76"/>
@@ -2800,7 +2806,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="88"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F61">
         <f t="shared" si="88"/>
@@ -2820,7 +2826,7 @@
       </c>
       <c r="K61">
         <f t="shared" si="89"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L61">
         <f t="shared" si="76"/>
@@ -2854,7 +2860,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="90"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F62">
         <f t="shared" si="90"/>
@@ -2874,7 +2880,7 @@
       </c>
       <c r="K62">
         <f t="shared" si="91"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L62">
         <f t="shared" si="76"/>
@@ -2908,7 +2914,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="92"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F63">
         <f t="shared" si="92"/>
@@ -2928,7 +2934,7 @@
       </c>
       <c r="K63">
         <f t="shared" si="93"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L63">
         <f t="shared" si="76"/>
@@ -2962,7 +2968,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="94"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F64">
         <f t="shared" si="94"/>
@@ -2982,7 +2988,7 @@
       </c>
       <c r="K64">
         <f t="shared" si="95"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L64">
         <f t="shared" si="76"/>
@@ -3104,7 +3110,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F69">
         <f t="shared" si="98"/>
@@ -3124,7 +3130,7 @@
       </c>
       <c r="K69">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L69">
         <f>ROUND(L13*$L$67,0)</f>
@@ -3158,7 +3164,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="102"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F70">
         <f t="shared" si="102"/>
@@ -3178,7 +3184,7 @@
       </c>
       <c r="K70">
         <f t="shared" si="103"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L70">
         <f t="shared" ref="L70:L78" si="104">ROUND(L14*$L$67,0)</f>
@@ -3212,7 +3218,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="108"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <f t="shared" si="108"/>
@@ -3232,7 +3238,7 @@
       </c>
       <c r="K71">
         <f t="shared" si="109"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L71">
         <f t="shared" si="104"/>
@@ -3266,7 +3272,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="110"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F72">
         <f t="shared" si="110"/>
@@ -3286,7 +3292,7 @@
       </c>
       <c r="K72">
         <f t="shared" si="111"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L72">
         <f t="shared" si="104"/>
@@ -3374,7 +3380,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="114"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F74">
         <f t="shared" si="114"/>
@@ -3394,7 +3400,7 @@
       </c>
       <c r="K74">
         <f t="shared" si="115"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L74">
         <f t="shared" si="104"/>
@@ -3428,7 +3434,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="116"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F75">
         <f t="shared" si="116"/>
@@ -3448,7 +3454,7 @@
       </c>
       <c r="K75">
         <f t="shared" si="117"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L75">
         <f t="shared" si="104"/>
@@ -3482,7 +3488,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="118"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F76">
         <f t="shared" si="118"/>
@@ -3502,7 +3508,7 @@
       </c>
       <c r="K76">
         <f t="shared" si="119"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L76">
         <f t="shared" si="104"/>
@@ -3536,7 +3542,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="120"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F77">
         <f t="shared" si="120"/>
@@ -3556,7 +3562,7 @@
       </c>
       <c r="K77">
         <f t="shared" si="121"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L77">
         <f t="shared" si="104"/>
@@ -3590,7 +3596,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="122"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F78">
         <f t="shared" si="122"/>
@@ -3610,7 +3616,7 @@
       </c>
       <c r="K78">
         <f t="shared" si="123"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L78">
         <f t="shared" si="104"/>
@@ -3732,7 +3738,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <f t="shared" si="126"/>
@@ -3752,7 +3758,7 @@
       </c>
       <c r="K83">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L83">
         <f>ROUND(L13*$L$81,0)</f>
@@ -3786,7 +3792,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="130"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F84">
         <f t="shared" si="130"/>
@@ -3806,7 +3812,7 @@
       </c>
       <c r="K84">
         <f t="shared" si="131"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L84">
         <f t="shared" ref="L84:L92" si="132">ROUND(L14*$L$81,0)</f>
@@ -3840,7 +3846,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="136"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <f t="shared" si="136"/>
@@ -3860,7 +3866,7 @@
       </c>
       <c r="K85">
         <f t="shared" si="137"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L85">
         <f t="shared" si="132"/>
@@ -3894,7 +3900,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="138"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F86">
         <f t="shared" si="138"/>
@@ -3914,7 +3920,7 @@
       </c>
       <c r="K86">
         <f t="shared" si="139"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L86">
         <f t="shared" si="132"/>
@@ -4002,7 +4008,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="142"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F88">
         <f t="shared" si="142"/>
@@ -4022,7 +4028,7 @@
       </c>
       <c r="K88">
         <f t="shared" si="143"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L88">
         <f t="shared" si="132"/>
@@ -4056,7 +4062,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="144"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F89">
         <f t="shared" si="144"/>
@@ -4076,7 +4082,7 @@
       </c>
       <c r="K89">
         <f t="shared" si="145"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L89">
         <f t="shared" si="132"/>
@@ -4110,7 +4116,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="146"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F90">
         <f t="shared" si="146"/>
@@ -4130,7 +4136,7 @@
       </c>
       <c r="K90">
         <f t="shared" si="147"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L90">
         <f t="shared" si="132"/>
@@ -4164,7 +4170,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="148"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F91">
         <f t="shared" si="148"/>
@@ -4184,7 +4190,7 @@
       </c>
       <c r="K91">
         <f t="shared" si="149"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L91">
         <f t="shared" si="132"/>
@@ -4218,7 +4224,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="150"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F92">
         <f t="shared" si="150"/>
@@ -4238,7 +4244,7 @@
       </c>
       <c r="K92">
         <f t="shared" si="151"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L92">
         <f t="shared" si="132"/>
@@ -4360,7 +4366,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F97">
         <f t="shared" si="154"/>
@@ -4380,7 +4386,7 @@
       </c>
       <c r="K97">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L97">
         <f>ROUND(L13*$L$95,0)</f>
@@ -4414,7 +4420,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="158"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <f t="shared" si="158"/>
@@ -4434,7 +4440,7 @@
       </c>
       <c r="K98">
         <f t="shared" si="159"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L98">
         <f t="shared" ref="L98:L106" si="160">ROUND(L14*$L$95,0)</f>
@@ -4468,7 +4474,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="164"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F99">
         <f t="shared" si="164"/>
@@ -4488,7 +4494,7 @@
       </c>
       <c r="K99">
         <f t="shared" si="165"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L99">
         <f t="shared" si="160"/>
@@ -4522,7 +4528,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="166"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F100">
         <f t="shared" si="166"/>
@@ -4542,7 +4548,7 @@
       </c>
       <c r="K100">
         <f t="shared" si="167"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L100">
         <f t="shared" si="160"/>
@@ -4630,7 +4636,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="170"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F102">
         <f t="shared" si="170"/>
@@ -4650,7 +4656,7 @@
       </c>
       <c r="K102">
         <f t="shared" si="171"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L102">
         <f t="shared" si="160"/>
@@ -4684,7 +4690,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="172"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F103">
         <f t="shared" si="172"/>
@@ -4704,7 +4710,7 @@
       </c>
       <c r="K103">
         <f t="shared" si="173"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L103">
         <f t="shared" si="160"/>
@@ -4738,7 +4744,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="174"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F104">
         <f t="shared" si="174"/>
@@ -4758,7 +4764,7 @@
       </c>
       <c r="K104">
         <f t="shared" si="175"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L104">
         <f t="shared" si="160"/>
@@ -4792,7 +4798,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="176"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F105">
         <f t="shared" si="176"/>
@@ -4812,7 +4818,7 @@
       </c>
       <c r="K105">
         <f t="shared" si="177"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L105">
         <f t="shared" si="160"/>
@@ -4846,7 +4852,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="178"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F106">
         <f t="shared" si="178"/>
@@ -4866,7 +4872,7 @@
       </c>
       <c r="K106">
         <f t="shared" si="179"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L106">
         <f t="shared" si="160"/>
@@ -5006,7 +5012,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="184"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F111">
         <f t="shared" si="185"/>
@@ -5026,7 +5032,7 @@
       </c>
       <c r="K111">
         <f t="shared" si="188"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L111">
         <f t="shared" si="188"/>
@@ -5060,7 +5066,7 @@
       </c>
       <c r="E112">
         <f t="shared" si="184"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F112">
         <f t="shared" si="185"/>
@@ -5080,7 +5086,7 @@
       </c>
       <c r="K112">
         <f t="shared" si="188"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L112">
         <f t="shared" si="188"/>
@@ -5114,7 +5120,7 @@
       </c>
       <c r="E113">
         <f t="shared" si="184"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F113">
         <f t="shared" si="185"/>
@@ -5134,7 +5140,7 @@
       </c>
       <c r="K113">
         <f t="shared" si="188"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L113">
         <f t="shared" si="188"/>
@@ -5168,7 +5174,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="184"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F114">
         <f t="shared" si="185"/>
@@ -5188,7 +5194,7 @@
       </c>
       <c r="K114">
         <f t="shared" si="188"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L114">
         <f t="shared" si="188"/>
@@ -5276,7 +5282,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="184"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F116">
         <f t="shared" si="185"/>
@@ -5296,7 +5302,7 @@
       </c>
       <c r="K116">
         <f t="shared" si="188"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L116">
         <f t="shared" si="188"/>
@@ -5330,7 +5336,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="184"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F117">
         <f t="shared" si="185"/>
@@ -5350,7 +5356,7 @@
       </c>
       <c r="K117">
         <f t="shared" si="188"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L117">
         <f t="shared" si="188"/>
@@ -5384,7 +5390,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="184"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F118">
         <f t="shared" si="185"/>
@@ -5404,7 +5410,7 @@
       </c>
       <c r="K118">
         <f t="shared" si="188"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L118">
         <f t="shared" si="188"/>
@@ -5438,7 +5444,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="184"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F119">
         <f t="shared" si="185"/>
@@ -5458,7 +5464,7 @@
       </c>
       <c r="K119">
         <f t="shared" si="188"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L119">
         <f t="shared" si="188"/>
@@ -5492,7 +5498,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="184"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F120">
         <f t="shared" si="185"/>
@@ -5512,7 +5518,7 @@
       </c>
       <c r="K120">
         <f t="shared" si="188"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L120">
         <f t="shared" si="188"/>
@@ -5652,7 +5658,7 @@
       </c>
       <c r="E125">
         <f t="shared" ref="E125:E134" si="197">K69</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F125">
         <f t="shared" ref="F125:F134" si="198">L69</f>
@@ -5672,7 +5678,7 @@
       </c>
       <c r="K125">
         <f t="shared" si="201"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L125">
         <f t="shared" si="201"/>
@@ -5706,7 +5712,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="197"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F126">
         <f t="shared" si="198"/>
@@ -5726,7 +5732,7 @@
       </c>
       <c r="K126">
         <f t="shared" si="204"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L126">
         <f t="shared" si="204"/>
@@ -5760,7 +5766,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="197"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F127">
         <f t="shared" si="198"/>
@@ -5780,7 +5786,7 @@
       </c>
       <c r="K127">
         <f t="shared" si="206"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L127">
         <f t="shared" si="206"/>
@@ -5814,7 +5820,7 @@
       </c>
       <c r="E128">
         <f t="shared" si="197"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F128">
         <f t="shared" si="198"/>
@@ -5834,7 +5840,7 @@
       </c>
       <c r="K128">
         <f t="shared" si="207"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L128">
         <f t="shared" si="207"/>
@@ -5922,7 +5928,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="197"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F130">
         <f t="shared" si="198"/>
@@ -5942,7 +5948,7 @@
       </c>
       <c r="K130">
         <f t="shared" si="209"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L130">
         <f t="shared" si="209"/>
@@ -5976,7 +5982,7 @@
       </c>
       <c r="E131">
         <f t="shared" si="197"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F131">
         <f t="shared" si="198"/>
@@ -5996,7 +6002,7 @@
       </c>
       <c r="K131">
         <f t="shared" si="210"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L131">
         <f t="shared" si="210"/>
@@ -6030,7 +6036,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="197"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F132">
         <f t="shared" si="198"/>
@@ -6050,7 +6056,7 @@
       </c>
       <c r="K132">
         <f t="shared" si="211"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L132">
         <f t="shared" si="211"/>
@@ -6084,7 +6090,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="197"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F133">
         <f t="shared" si="198"/>
@@ -6104,7 +6110,7 @@
       </c>
       <c r="K133">
         <f t="shared" si="212"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L133">
         <f t="shared" si="212"/>
@@ -6138,7 +6144,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="197"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F134">
         <f t="shared" si="198"/>
@@ -6158,7 +6164,7 @@
       </c>
       <c r="K134">
         <f t="shared" si="213"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L134">
         <f t="shared" si="213"/>
@@ -6298,7 +6304,7 @@
       </c>
       <c r="E139">
         <f t="shared" si="217"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <f t="shared" si="218"/>
@@ -6318,7 +6324,7 @@
       </c>
       <c r="K139">
         <f t="shared" si="222"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L139">
         <f t="shared" si="222"/>
@@ -6352,7 +6358,7 @@
       </c>
       <c r="E140">
         <f t="shared" si="217"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F140">
         <f t="shared" si="218"/>
@@ -6372,7 +6378,7 @@
       </c>
       <c r="K140">
         <f t="shared" si="225"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L140">
         <f t="shared" si="225"/>
@@ -6406,7 +6412,7 @@
       </c>
       <c r="E141">
         <f t="shared" si="217"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F141">
         <f t="shared" si="218"/>
@@ -6426,7 +6432,7 @@
       </c>
       <c r="K141">
         <f t="shared" si="227"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L141">
         <f t="shared" si="227"/>
@@ -6460,7 +6466,7 @@
       </c>
       <c r="E142">
         <f t="shared" si="217"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F142">
         <f t="shared" si="218"/>
@@ -6480,7 +6486,7 @@
       </c>
       <c r="K142">
         <f t="shared" si="228"/>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="L142">
         <f t="shared" si="228"/>
@@ -6568,7 +6574,7 @@
       </c>
       <c r="E144">
         <f t="shared" si="217"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F144">
         <f t="shared" si="218"/>
@@ -6588,7 +6594,7 @@
       </c>
       <c r="K144">
         <f t="shared" si="230"/>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="L144">
         <f t="shared" si="230"/>
@@ -6622,7 +6628,7 @@
       </c>
       <c r="E145">
         <f t="shared" si="217"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F145">
         <f t="shared" si="218"/>
@@ -6642,7 +6648,7 @@
       </c>
       <c r="K145">
         <f t="shared" si="231"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="L145">
         <f t="shared" si="231"/>
@@ -6676,7 +6682,7 @@
       </c>
       <c r="E146">
         <f t="shared" si="217"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="F146">
         <f t="shared" si="218"/>
@@ -6696,7 +6702,7 @@
       </c>
       <c r="K146">
         <f t="shared" si="232"/>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="L146">
         <f t="shared" si="232"/>
@@ -6730,7 +6736,7 @@
       </c>
       <c r="E147">
         <f t="shared" si="217"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="F147">
         <f t="shared" si="218"/>
@@ -6750,7 +6756,7 @@
       </c>
       <c r="K147">
         <f t="shared" si="233"/>
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="L147">
         <f t="shared" si="233"/>
@@ -6784,7 +6790,7 @@
       </c>
       <c r="E148">
         <f t="shared" si="217"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="F148">
         <f t="shared" si="218"/>
@@ -6804,7 +6810,7 @@
       </c>
       <c r="K148">
         <f t="shared" si="234"/>
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="L148">
         <f t="shared" si="234"/>
